--- a/solutions/microsoft/cyber-security/cmmc-enclave/presales/infrastructure-costs.xlsx
+++ b/solutions/microsoft/cyber-security/cmmc-enclave/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="38" t="inlineStr">
@@ -987,7 +987,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="41" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="38" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="41" t="inlineStr">
@@ -1191,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1374,7 +1374,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1423,7 +1423,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1472,7 +1472,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B13" s="44" t="inlineStr">
@@ -1807,7 +1807,7 @@
     <row r="14" ht="26" customHeight="1">
       <c r="A14" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B14" s="48" t="inlineStr">
@@ -1903,261 +1903,36 @@
       </c>
     </row>
     <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B16" s="48" t="inlineStr">
-        <is>
-          <t>CMMC Assessment Support</t>
-        </is>
-      </c>
-      <c r="C16" s="48" t="inlineStr">
-        <is>
-          <t>C3PAO assessment preparation (60 hours @ $250)</t>
-        </is>
-      </c>
-      <c r="D16" s="49" t="n">
-        <v>60</v>
-      </c>
-      <c r="E16" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F16" s="50" t="n">
-        <v>250</v>
-      </c>
-      <c r="G16" s="50" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H16" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50" t="n">
-        <v>15000</v>
-      </c>
-      <c r="K16" s="48" t="inlineStr">
-        <is>
-          <t>Year 1 only - CMMC Level 2 assessment</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="inlineStr">
-        <is>
-          <t>Environment Setup</t>
-        </is>
-      </c>
-      <c r="C17" s="44" t="inlineStr">
-        <is>
-          <t>GCC High tenant and Azure Gov setup (120 hours @ $225)</t>
-        </is>
-      </c>
-      <c r="D17" s="45" t="n">
-        <v>120</v>
-      </c>
-      <c r="E17" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F17" s="46" t="n">
-        <v>225</v>
-      </c>
-      <c r="G17" s="46" t="n">
-        <v>27000</v>
-      </c>
-      <c r="H17" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="46" t="n">
-        <v>27000</v>
-      </c>
-      <c r="K17" s="44" t="inlineStr">
-        <is>
-          <t>Year 1 only - initial deployment</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B18" s="48" t="inlineStr">
-        <is>
-          <t>NIST 800-171 Implementation</t>
-        </is>
-      </c>
-      <c r="C18" s="48" t="inlineStr">
-        <is>
-          <t>Security controls implementation (80 hours @ $225)</t>
-        </is>
-      </c>
-      <c r="D18" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="E18" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F18" s="50" t="n">
-        <v>225</v>
-      </c>
-      <c r="G18" s="50" t="n">
-        <v>18000</v>
-      </c>
-      <c r="H18" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="50" t="n">
-        <v>18000</v>
-      </c>
-      <c r="K18" s="48" t="inlineStr">
-        <is>
-          <t>Year 1 only - compliance configuration</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B19" s="44" t="inlineStr">
-        <is>
-          <t>Migration Services</t>
-        </is>
-      </c>
-      <c r="C19" s="44" t="inlineStr">
-        <is>
-          <t>Email and data migration to GCC High (40 hours @ $200)</t>
-        </is>
-      </c>
-      <c r="D19" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E19" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F19" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G19" s="46" t="n">
-        <v>8000</v>
-      </c>
-      <c r="H19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="46" t="n">
-        <v>8000</v>
-      </c>
-      <c r="K19" s="44" t="inlineStr">
-        <is>
-          <t>Year 1 only - data migration</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B20" s="48" t="inlineStr">
-        <is>
-          <t>Training &amp; Documentation</t>
-        </is>
-      </c>
-      <c r="C20" s="48" t="inlineStr">
-        <is>
-          <t>Administrator and user training (32 hours @ $200)</t>
-        </is>
-      </c>
-      <c r="D20" s="49" t="n">
-        <v>32</v>
-      </c>
-      <c r="E20" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F20" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G20" s="50" t="n">
-        <v>6400</v>
-      </c>
-      <c r="H20" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="50" t="n">
-        <v>6400</v>
-      </c>
-      <c r="K20" s="48" t="inlineStr">
-        <is>
-          <t>Year 1 only - knowledge transfer</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="51" t="inlineStr">
+      <c r="A16" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B21" s="52" t="n"/>
-      <c r="C21" s="52" t="n"/>
-      <c r="D21" s="52" t="n"/>
-      <c r="E21" s="52" t="n"/>
-      <c r="F21" s="52" t="n"/>
-      <c r="G21" s="53">
-        <f>SUM(G3:G20)</f>
-        <v/>
-      </c>
-      <c r="H21" s="53">
-        <f>SUM(H3:H20)</f>
-        <v/>
-      </c>
-      <c r="I21" s="53">
-        <f>SUM(I3:I20)</f>
-        <v/>
-      </c>
-      <c r="J21" s="53">
-        <f>SUM(J3:J20)</f>
-        <v/>
-      </c>
-      <c r="K21" s="52" t="n"/>
+      <c r="B16" s="52" t="n"/>
+      <c r="C16" s="52" t="n"/>
+      <c r="D16" s="52" t="n"/>
+      <c r="E16" s="52" t="n"/>
+      <c r="F16" s="52" t="n"/>
+      <c r="G16" s="53">
+        <f>SUM(G3:G15)</f>
+        <v/>
+      </c>
+      <c r="H16" s="53">
+        <f>SUM(H3:H15)</f>
+        <v/>
+      </c>
+      <c r="I16" s="53">
+        <f>SUM(I3:I15)</f>
+        <v/>
+      </c>
+      <c r="J16" s="53">
+        <f>SUM(J3:J15)</f>
+        <v/>
+      </c>
+      <c r="K16" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K21"/>
+  <autoFilter ref="A2:K16"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2218,7 +1993,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -2310,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2375,7 +2150,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2466,69 +2241,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
